--- a/TestPlan.xlsx
+++ b/TestPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://galwaymayoinstitute-my.sharepoint.com/personal/g00389108_gmit_ie/Documents/2021_2022/App Development/Assignments/3- Mastermind/Mastermind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{075A9B8D-C7F5-4CFD-95F8-FDF0DD3E84A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{075A9B8D-C7F5-4CFD-95F8-FDF0DD3E84A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24649575-22C3-4983-9D7A-D326D67ADBCC}"/>
   <bookViews>
     <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{962240CE-7041-49A1-A3C5-7DBBAB5784A4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>Test</t>
   </si>
@@ -43,6 +43,102 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>Start up</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Message Shows up and board layout is correct</t>
+  </si>
+  <si>
+    <t>How To Button</t>
+  </si>
+  <si>
+    <t>Clicking this shows user instructiond of game</t>
+  </si>
+  <si>
+    <t>Current Row</t>
+  </si>
+  <si>
+    <t>Current Row Ocapity is lighter than others</t>
+  </si>
+  <si>
+    <t>Select Colour</t>
+  </si>
+  <si>
+    <t>Placing a colour</t>
+  </si>
+  <si>
+    <t>Clicking a color- ocapity is lighter for user to know</t>
+  </si>
+  <si>
+    <t>Clicking an empty space on the current row, places selected colour</t>
+  </si>
+  <si>
+    <t>Only current row</t>
+  </si>
+  <si>
+    <t>Can Only place a colour on current row</t>
+  </si>
+  <si>
+    <t>Row Update</t>
+  </si>
+  <si>
+    <t>After each turn this updates. This means next row ocapity changes</t>
+  </si>
+  <si>
+    <t>and last one goes back to normal, also means can now only place</t>
+  </si>
+  <si>
+    <t>on this row</t>
+  </si>
+  <si>
+    <t>Check Guess btn</t>
+  </si>
+  <si>
+    <t>This sets off the checking user guess vs answer methods</t>
+  </si>
+  <si>
+    <t>check guess vs answer</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>Red and White pins work correctly for checking if users guess matches</t>
+  </si>
+  <si>
+    <t>computer answer sequence</t>
+  </si>
+  <si>
+    <t>End of game</t>
+  </si>
+  <si>
+    <t>Shows Answer</t>
+  </si>
+  <si>
+    <t>When Game is over user can see all past guesses and answer</t>
+  </si>
+  <si>
+    <t>New Game Btn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If User Wins, Message is displayed. Similar if runs out of turns, no more </t>
+  </si>
+  <si>
+    <t>turns allowed to be taken</t>
+  </si>
+  <si>
+    <t>When This is clicked, Game layout resets and everything works as should</t>
+  </si>
+  <si>
+    <t>Save Game</t>
+  </si>
+  <si>
+    <t>Load Game</t>
   </si>
 </sst>
 </file>
@@ -394,13 +490,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC72F3EA-5261-4B02-A717-1978D60AACE2}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="2.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" customWidth="1"/>
+    <col min="5" max="5" width="60.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -413,6 +516,168 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestPlan.xlsx
+++ b/TestPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://galwaymayoinstitute-my.sharepoint.com/personal/g00389108_gmit_ie/Documents/2021_2022/App Development/Assignments/3- Mastermind/Mastermind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{075A9B8D-C7F5-4CFD-95F8-FDF0DD3E84A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24649575-22C3-4983-9D7A-D326D67ADBCC}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{075A9B8D-C7F5-4CFD-95F8-FDF0DD3E84A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80AD9AE7-7F14-45D4-9FE2-FAAF8E41407F}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{962240CE-7041-49A1-A3C5-7DBBAB5784A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{962240CE-7041-49A1-A3C5-7DBBAB5784A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Test</t>
   </si>
@@ -139,6 +139,21 @@
   </si>
   <si>
     <t>Load Game</t>
+  </si>
+  <si>
+    <t>When a user clicks save, data is saved to a file for a user to load later</t>
+  </si>
+  <si>
+    <t>when you click load, a saved game is loaded into the gameboard to continue</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>When a user clicks save the data is put into arrays however a file isnt created</t>
+  </si>
+  <si>
+    <t>as a file isnt created a past game cannot load to gameboard</t>
   </si>
 </sst>
 </file>
@@ -490,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC72F3EA-5261-4B02-A717-1978D60AACE2}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,7 +517,7 @@
     <col min="2" max="2" width="2.88671875" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="2.6640625" customWidth="1"/>
-    <col min="5" max="5" width="60.21875" customWidth="1"/>
+    <col min="5" max="5" width="65.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -672,10 +687,44 @@
       <c r="A20" t="s">
         <v>33</v>
       </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/TestPlan.xlsx
+++ b/TestPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://galwaymayoinstitute-my.sharepoint.com/personal/g00389108_gmit_ie/Documents/2021_2022/App Development/Assignments/3- Mastermind/Mastermind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="8_{075A9B8D-C7F5-4CFD-95F8-FDF0DD3E84A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80AD9AE7-7F14-45D4-9FE2-FAAF8E41407F}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{075A9B8D-C7F5-4CFD-95F8-FDF0DD3E84A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A78769EB-5606-4F21-90DB-FFE56724F458}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{962240CE-7041-49A1-A3C5-7DBBAB5784A4}"/>
+    <workbookView xWindow="12888" yWindow="3552" windowWidth="17280" windowHeight="8964" xr2:uid="{962240CE-7041-49A1-A3C5-7DBBAB5784A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>Test</t>
   </si>
@@ -57,9 +57,6 @@
     <t>How To Button</t>
   </si>
   <si>
-    <t>Clicking this shows user instructiond of game</t>
-  </si>
-  <si>
     <t>Current Row</t>
   </si>
   <si>
@@ -105,15 +102,6 @@
     <t>check guess vs answer</t>
   </si>
   <si>
-    <t>passed</t>
-  </si>
-  <si>
-    <t>Red and White pins work correctly for checking if users guess matches</t>
-  </si>
-  <si>
-    <t>computer answer sequence</t>
-  </si>
-  <si>
     <t>End of game</t>
   </si>
   <si>
@@ -147,13 +135,19 @@
     <t>when you click load, a saved game is loaded into the gameboard to continue</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>When a user clicks save the data is put into arrays however a file isnt created</t>
-  </si>
-  <si>
-    <t>as a file isnt created a past game cannot load to gameboard</t>
+    <t xml:space="preserve">Red and White Pins work correctly with all outcomes however when loading </t>
+  </si>
+  <si>
+    <t>the game it only shows the current rows pins</t>
+  </si>
+  <si>
+    <t>half passed</t>
+  </si>
+  <si>
+    <t>user is also asked are they sure</t>
+  </si>
+  <si>
+    <t>Clicking this shows user instructions of game</t>
   </si>
 </sst>
 </file>
@@ -505,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC72F3EA-5261-4B02-A717-1978D60AACE2}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,181 +544,164 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="E17" t="s">
         <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
